--- a/experiments/20201220_exp24_atpadp_ratio/20201220_picklist.xlsx
+++ b/experiments/20201220_exp24_atpadp_ratio/20201220_picklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitaroychoudhury/Documents/MURRAY/ug_murray/experiments/20201220_exp24_atpadp_ratio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33694B9F-AB7F-7D49-AB5A-F757FAE3C661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E4D3C8-8342-A642-99BF-0DCD43B43F2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EECF3033-E168-A047-B77F-CDB0568A93CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{EECF3033-E168-A047-B77F-CDB0568A93CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="45">
   <si>
     <t>Source Plate Name</t>
   </si>
@@ -72,57 +72,18 @@
     <t>384PP_AQ_BP</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Destination[1]</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
     <t>nL</t>
   </si>
   <si>
@@ -163,6 +124,51 @@
   </si>
   <si>
     <t>ADD</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,22 +586,22 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>9325</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -606,13 +612,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J3">
         <v>2625</v>
@@ -626,13 +632,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <v>1450</v>
@@ -646,13 +652,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J5">
         <v>6125</v>
@@ -666,25 +672,25 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J6">
         <v>7000</v>
       </c>
       <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s">
         <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -695,22 +701,22 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>4375</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M7">
         <f>SUM(J2:J6)</f>
@@ -737,20 +743,20 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J8">
         <f>J7</f>
         <v>4375</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M8">
         <f>SUM(J7:J9)</f>
@@ -777,20 +783,20 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J9">
         <f>J8</f>
         <v>4375</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M9">
         <f>SUM(J10:J11)</f>
@@ -817,19 +823,19 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="J10">
         <v>1175</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -840,13 +846,13 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J11">
         <f>J10</f>
@@ -861,26 +867,26 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1">
         <v>9325</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -891,17 +897,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1">
         <v>2625</v>
@@ -916,17 +922,17 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J14" s="1">
         <v>1450</v>
@@ -941,17 +947,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1">
         <v>6125</v>
@@ -966,17 +972,17 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="J16" s="1">
         <v>7000</v>
@@ -991,23 +997,23 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J17" s="1">
         <v>4375</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1018,17 +1024,17 @@
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1">
         <v>4375</v>
@@ -1043,17 +1049,17 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1">
         <v>4375</v>
@@ -1068,23 +1074,23 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J20" s="1">
         <v>1175</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1095,17 +1101,17 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1">
         <v>1175</v>
@@ -1120,26 +1126,26 @@
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J22" s="1">
         <v>9325</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1150,17 +1156,17 @@
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1">
         <v>2625</v>
@@ -1174,17 +1180,17 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1">
         <v>1450</v>
@@ -1198,17 +1204,17 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="J25" s="1">
         <v>6125</v>
@@ -1222,17 +1228,17 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J26" s="1">
         <v>7000</v>
@@ -1246,23 +1252,23 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1">
         <v>4375</v>
       </c>
       <c r="K27" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1273,17 +1279,17 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J28" s="1">
         <v>4375</v>
@@ -1297,17 +1303,17 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="J29" s="1">
         <v>4375</v>
@@ -1321,23 +1327,23 @@
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J30" s="1">
         <v>1175</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1348,17 +1354,17 @@
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J31" s="1">
         <v>1175</v>
